--- a/tableau/total_price_tebleau.xlsx
+++ b/tableau/total_price_tebleau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4DFF2-386B-47A1-B966-73314EEF4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E45AF6-B263-4CB2-8054-CB3886EC358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="81">
   <si>
     <t>월</t>
   </si>
@@ -868,6 +868,9 @@
             <v>30</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="19">
@@ -1079,6 +1082,9 @@
             <v>11</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="19">
@@ -1182,6 +1188,9 @@
             <v>11</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="19">
@@ -1554,6 +1563,9 @@
           <cell r="P23">
             <v>9</v>
           </cell>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="27">
@@ -2126,6 +2138,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="13">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
         <row r="20">
           <cell r="P20">
             <v>1</v>
@@ -2146,6 +2161,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="19">
@@ -2243,20 +2261,286 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="17">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="20">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="26">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2303,11 +2587,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>제   목</v>
-          </cell>
-        </row>
         <row r="19">
           <cell r="P19">
             <v>8</v>
@@ -2706,6 +2985,9 @@
             <v>13</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="19">
@@ -2869,7 +3151,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="22">
         <row r="19">
           <cell r="P19">
@@ -2881,14 +3179,52 @@
             <v>42</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="23">
           <cell r="P23">
             <v>6</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="25">
         <row r="19">
           <cell r="P19">
@@ -2990,6 +3326,9 @@
           <cell r="P23">
             <v>19</v>
           </cell>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="29">
@@ -3219,6 +3558,9 @@
           <cell r="P23">
             <v>8</v>
           </cell>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="5">
@@ -4883,7 +5225,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5153,8 +5495,46 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="7">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="9">
         <row r="19">
           <cell r="P19">
@@ -5357,6 +5737,9 @@
           <cell r="P20">
             <v>126</v>
           </cell>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
         </row>
         <row r="22">
           <cell r="P22">
@@ -7076,6 +7459,9 @@
             <v>89</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="22">
           <cell r="P22">
             <v>18</v>
@@ -7220,7 +7606,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="11">
         <row r="19">
           <cell r="P19">
@@ -7997,6 +8402,9 @@
             <v>6</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="19">
@@ -8191,6 +8599,15 @@
         </row>
       </sheetData>
       <sheetData sheetId="10">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="22">
           <cell r="P22">
             <v>3</v>
@@ -8265,6 +8682,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="19">
@@ -8292,6 +8712,9 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="19">
@@ -8549,7 +8972,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="22">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="23">
         <row r="19">
           <cell r="P19">
@@ -9139,8 +9581,46 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="9">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="11">
         <row r="19">
           <cell r="P19">
@@ -9647,9 +10127,50 @@
             <v>9</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="29">
         <row r="19">
           <cell r="P19">
@@ -10144,6 +10665,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="12">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
         <row r="20">
           <cell r="P20">
             <v>2</v>
@@ -10159,6 +10683,12 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="19">
@@ -10267,6 +10797,9 @@
             <v>48</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="22">
           <cell r="P22">
             <v>21</v>
@@ -10347,7 +10880,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="20">
         <row r="19">
           <cell r="P19">
@@ -10508,7 +11060,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="25">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="26">
         <row r="19">
           <cell r="P19">
@@ -10552,6 +11123,9 @@
             <v>111</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="22">
           <cell r="P22">
             <v>18</v>
@@ -10568,7 +11142,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="28">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="29">
         <row r="19">
           <cell r="P19">
@@ -10722,6 +11315,9 @@
             <v>11</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="19">
@@ -10906,6 +11502,9 @@
             <v>15</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="19">
@@ -11090,6 +11689,9 @@
             <v>12</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="17">
         <row r="19">
@@ -11273,6 +11875,9 @@
           <cell r="P23">
             <v>13</v>
           </cell>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="24">
@@ -11494,6 +12099,9 @@
             <v>67</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="22">
           <cell r="P22">
             <v>10</v>
@@ -11568,6 +12176,9 @@
             <v>7</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="19">
@@ -11932,6 +12543,9 @@
             <v>76</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
         <row r="22">
           <cell r="P22">
             <v>13</v>
@@ -12150,6 +12764,9 @@
           <cell r="P20">
             <v>66</v>
           </cell>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
         </row>
         <row r="22">
           <cell r="P22">
@@ -12981,6 +13598,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="15">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
         <row r="20">
           <cell r="P20">
             <v>3</v>
@@ -12995,6 +13615,12 @@
           <cell r="P22">
             <v>3</v>
           </cell>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="16">
@@ -13908,6 +14534,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="13">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
         <row r="20">
           <cell r="P20">
             <v>1</v>
@@ -13927,6 +14556,9 @@
           <cell r="P23">
             <v>2</v>
           </cell>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="14">
@@ -14728,6 +15360,9 @@
             <v>12</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="19">
@@ -14912,6 +15547,9 @@
             <v>17</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="19">
@@ -15264,7 +15902,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="28">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="21">
+          <cell r="P21"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="29">
         <row r="19">
           <cell r="P19">
@@ -15493,6 +16147,9 @@
             <v>12</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="19">
@@ -15758,6 +16415,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="19">
@@ -15860,6 +16520,9 @@
           <cell r="P23">
             <v>13</v>
           </cell>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
         </row>
       </sheetData>
       <sheetData sheetId="19">
@@ -16351,6 +17014,9 @@
             <v>22</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
         <row r="23">
           <cell r="P23">
             <v>22</v>
@@ -16524,7 +17190,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="12">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="13">
         <row r="19">
           <cell r="P19">
@@ -17084,11 +17766,23 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
         <row r="20">
           <cell r="P20">
             <v>1</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="19">
@@ -17100,6 +17794,12 @@
           <cell r="P20">
             <v>18</v>
           </cell>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
         </row>
         <row r="24">
           <cell r="P24">
@@ -17150,6 +17850,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>9</v>
@@ -17210,8 +17913,40 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="7">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="9">
         <row r="19">
           <cell r="P19">
@@ -17228,6 +17963,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>6</v>
@@ -17331,6 +18069,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>0</v>
@@ -17353,6 +18094,12 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="19">
@@ -17370,6 +18117,9 @@
             <v>6</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>18</v>
@@ -17392,6 +18142,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>5</v>
@@ -17441,6 +18194,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>4</v>
@@ -17463,13 +18219,32 @@
             <v>8</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>11</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="21">
         <row r="19">
           <cell r="P19">
@@ -17513,6 +18288,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>10</v>
@@ -17562,6 +18340,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>5</v>
@@ -17589,6 +18370,9 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="26">
         <row r="19">
@@ -17606,6 +18390,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>8</v>
@@ -17628,6 +18415,12 @@
             <v>6</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="28">
         <row r="19">
@@ -17656,7 +18449,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="30">
         <row r="19">
           <cell r="P19">
@@ -17745,6 +18554,9 @@
             <v>6</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>10</v>
@@ -17767,6 +18579,9 @@
             <v>7</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>8</v>
@@ -17789,6 +18604,9 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>5</v>
@@ -17822,7 +18640,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="19">
           <cell r="P19">
@@ -17839,6 +18673,9 @@
             <v>6</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>9</v>
@@ -17855,6 +18692,12 @@
           <cell r="P20">
             <v>33</v>
           </cell>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
         </row>
         <row r="24">
           <cell r="P24">
@@ -17878,6 +18721,9 @@
             <v>5</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>6</v>
@@ -17900,6 +18746,9 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>5</v>
@@ -17976,6 +18825,9 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>1</v>
@@ -17998,6 +18850,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>12</v>
@@ -18020,6 +18875,9 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>10</v>
@@ -18042,6 +18900,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>11</v>
@@ -18102,7 +18963,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
+        <row r="20">
+          <cell r="P20"/>
+        </row>
+        <row r="22">
+          <cell r="P22"/>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="18">
         <row r="19">
           <cell r="P19">
@@ -18119,6 +18996,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>7</v>
@@ -18168,6 +19048,9 @@
             <v>4</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>9</v>
@@ -18217,6 +19100,9 @@
             <v>5</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>11</v>
@@ -18239,6 +19125,9 @@
             <v>8</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>8</v>
@@ -18261,6 +19150,12 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="25">
         <row r="19">
@@ -18278,6 +19173,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>10</v>
@@ -18327,6 +19225,9 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>10</v>
@@ -18349,6 +19250,9 @@
             <v>4</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>8</v>
@@ -18370,6 +19274,9 @@
           <cell r="P22">
             <v>2</v>
           </cell>
+        </row>
+        <row r="23">
+          <cell r="P23"/>
         </row>
         <row r="24">
           <cell r="P24">
@@ -18442,6 +19349,9 @@
             <v>9</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>8</v>
@@ -18545,6 +19455,9 @@
             <v>11</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>12</v>
@@ -18567,6 +19480,9 @@
             <v>5</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>5</v>
@@ -18589,6 +19505,9 @@
             <v>14</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>6</v>
@@ -18611,6 +19530,9 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>5</v>
@@ -18618,6 +19540,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="8">
+        <row r="19">
+          <cell r="P19"/>
+        </row>
         <row r="20">
           <cell r="P20">
             <v>1</v>
@@ -18628,6 +19553,9 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>3</v>
@@ -18677,6 +19605,9 @@
             <v>17</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>12</v>
@@ -18699,6 +19630,9 @@
             <v>9</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>10</v>
@@ -18721,6 +19655,9 @@
             <v>11</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>6</v>
@@ -18743,6 +19680,9 @@
             <v>8</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="P23"/>
+        </row>
         <row r="24">
           <cell r="P24">
             <v>7</v>
@@ -18986,6 +19926,9 @@
             <v>21</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="23">
         <row r="19">
@@ -19170,6 +20113,9 @@
             <v>23</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="30">
         <row r="19">
@@ -19198,9 +20144,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19592,6 +20538,9 @@
             <v>18</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="19">
@@ -19965,6 +20914,9 @@
             <v>15</v>
           </cell>
         </row>
+        <row r="24">
+          <cell r="P24"/>
+        </row>
       </sheetData>
       <sheetData sheetId="27">
         <row r="19">
@@ -20048,7 +21000,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20252,11 +21204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ADB872-089C-4116-92F7-D7DE0090DDD6}">
-  <dimension ref="A1:R822"/>
+  <dimension ref="A1:R855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J701" sqref="J701:J731"/>
+      <pane ySplit="1" topLeftCell="A819" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q814" sqref="Q814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62649,6 +63601,1428 @@
         <v>138</v>
       </c>
     </row>
+    <row r="823" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>822</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C823" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D823" s="5">
+        <v>4</v>
+      </c>
+      <c r="E823" s="5">
+        <v>1</v>
+      </c>
+      <c r="F823" s="7">
+        <v>4094430</v>
+      </c>
+      <c r="G823" s="7">
+        <v>17731853</v>
+      </c>
+      <c r="H823" s="7">
+        <v>21826283</v>
+      </c>
+      <c r="J823" s="4">
+        <v>11</v>
+      </c>
+      <c r="K823" s="4">
+        <v>130</v>
+      </c>
+      <c r="L823" s="4">
+        <v>10</v>
+      </c>
+      <c r="M823" s="4">
+        <v>15</v>
+      </c>
+      <c r="N823" s="4">
+        <v>16</v>
+      </c>
+      <c r="O823" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q823" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="824" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>823</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C824" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D824" s="5">
+        <v>4</v>
+      </c>
+      <c r="E824" s="5">
+        <v>2</v>
+      </c>
+      <c r="F824" s="7">
+        <v>9898183</v>
+      </c>
+      <c r="G824" s="7">
+        <v>8595771</v>
+      </c>
+      <c r="H824" s="7">
+        <v>18493954</v>
+      </c>
+      <c r="J824" s="4">
+        <v>14</v>
+      </c>
+      <c r="K824" s="4">
+        <v>89</v>
+      </c>
+      <c r="L824" s="4">
+        <v>7</v>
+      </c>
+      <c r="M824" s="4">
+        <v>19</v>
+      </c>
+      <c r="N824" s="4">
+        <v>13</v>
+      </c>
+      <c r="O824" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q824" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="825" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>824</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C825" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D825" s="5">
+        <v>4</v>
+      </c>
+      <c r="E825" s="5">
+        <v>3</v>
+      </c>
+      <c r="F825" s="7">
+        <v>8797477</v>
+      </c>
+      <c r="G825" s="7">
+        <v>8453880</v>
+      </c>
+      <c r="H825" s="7">
+        <v>17251357</v>
+      </c>
+      <c r="J825" s="4">
+        <v>12</v>
+      </c>
+      <c r="K825" s="4">
+        <v>68</v>
+      </c>
+      <c r="L825" s="4">
+        <v>8</v>
+      </c>
+      <c r="M825" s="4">
+        <v>27</v>
+      </c>
+      <c r="N825" s="4">
+        <v>4</v>
+      </c>
+      <c r="O825" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q825" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="826" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>825</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C826" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D826" s="5">
+        <v>4</v>
+      </c>
+      <c r="E826" s="5">
+        <v>4</v>
+      </c>
+      <c r="F826" s="7">
+        <v>10291898</v>
+      </c>
+      <c r="G826" s="7">
+        <v>9187225</v>
+      </c>
+      <c r="H826" s="7">
+        <v>19479123</v>
+      </c>
+      <c r="J826" s="4">
+        <v>11</v>
+      </c>
+      <c r="K826" s="4">
+        <v>112</v>
+      </c>
+      <c r="L826" s="4">
+        <v>7</v>
+      </c>
+      <c r="M826" s="4">
+        <v>23</v>
+      </c>
+      <c r="N826" s="4">
+        <v>12</v>
+      </c>
+      <c r="O826" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q826" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="827" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>826</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C827" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D827" s="5">
+        <v>4</v>
+      </c>
+      <c r="E827" s="5">
+        <v>5</v>
+      </c>
+      <c r="F827" s="7">
+        <v>11077838</v>
+      </c>
+      <c r="G827" s="7">
+        <v>9393060</v>
+      </c>
+      <c r="H827" s="7">
+        <v>20470898</v>
+      </c>
+      <c r="J827" s="4">
+        <v>13</v>
+      </c>
+      <c r="K827" s="4">
+        <v>119</v>
+      </c>
+      <c r="L827" s="4">
+        <v>10</v>
+      </c>
+      <c r="M827" s="4">
+        <v>16</v>
+      </c>
+      <c r="N827" s="4">
+        <v>17</v>
+      </c>
+      <c r="O827" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q827" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="828" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>827</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C828" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D828" s="5">
+        <v>4</v>
+      </c>
+      <c r="E828" s="5">
+        <v>6</v>
+      </c>
+      <c r="F828" s="7">
+        <v>8488342</v>
+      </c>
+      <c r="G828" s="7">
+        <v>8213510</v>
+      </c>
+      <c r="H828" s="7">
+        <v>16701852</v>
+      </c>
+      <c r="J828" s="4">
+        <v>13</v>
+      </c>
+      <c r="K828" s="4">
+        <v>95</v>
+      </c>
+      <c r="L828" s="4">
+        <v>9</v>
+      </c>
+      <c r="M828" s="4">
+        <v>24</v>
+      </c>
+      <c r="N828" s="4">
+        <v>15</v>
+      </c>
+      <c r="O828" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q828" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="829" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>828</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C829" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D829" s="5">
+        <v>4</v>
+      </c>
+      <c r="E829" s="5">
+        <v>7</v>
+      </c>
+      <c r="F829" s="7">
+        <v>6804588</v>
+      </c>
+      <c r="G829" s="7">
+        <v>4535871</v>
+      </c>
+      <c r="H829" s="7">
+        <v>11340459</v>
+      </c>
+      <c r="J829" s="4">
+        <v>13</v>
+      </c>
+      <c r="K829" s="4">
+        <v>101</v>
+      </c>
+      <c r="L829" s="4">
+        <v>2</v>
+      </c>
+      <c r="M829" s="4">
+        <v>16</v>
+      </c>
+      <c r="N829" s="4">
+        <v>13</v>
+      </c>
+      <c r="O829" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q829" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="830" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>829</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C830" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D830" s="5">
+        <v>4</v>
+      </c>
+      <c r="E830" s="5">
+        <v>8</v>
+      </c>
+      <c r="F830" s="7">
+        <v>10452464</v>
+      </c>
+      <c r="G830" s="7">
+        <v>8687610</v>
+      </c>
+      <c r="H830" s="7">
+        <v>19140074</v>
+      </c>
+      <c r="J830" s="4">
+        <v>15</v>
+      </c>
+      <c r="K830" s="4">
+        <v>99</v>
+      </c>
+      <c r="L830" s="4">
+        <v>9</v>
+      </c>
+      <c r="M830" s="4">
+        <v>18</v>
+      </c>
+      <c r="N830" s="4">
+        <v>14</v>
+      </c>
+      <c r="O830" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q830" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="831" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>830</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C831" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D831" s="5">
+        <v>4</v>
+      </c>
+      <c r="E831" s="5">
+        <v>9</v>
+      </c>
+      <c r="F831" s="7">
+        <v>8524037</v>
+      </c>
+      <c r="G831" s="7">
+        <v>9566002</v>
+      </c>
+      <c r="H831" s="7">
+        <v>18090039</v>
+      </c>
+      <c r="J831" s="4">
+        <v>5</v>
+      </c>
+      <c r="K831" s="4">
+        <v>35</v>
+      </c>
+      <c r="L831" s="4">
+        <v>5</v>
+      </c>
+      <c r="M831" s="4">
+        <v>13</v>
+      </c>
+      <c r="N831" s="4">
+        <v>7</v>
+      </c>
+      <c r="O831" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q831" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="832" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>831</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C832" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D832" s="5">
+        <v>4</v>
+      </c>
+      <c r="E832" s="5">
+        <v>10</v>
+      </c>
+      <c r="F832" s="7">
+        <v>6309358</v>
+      </c>
+      <c r="G832" s="7">
+        <v>3843501</v>
+      </c>
+      <c r="H832" s="7">
+        <v>10152859</v>
+      </c>
+      <c r="J832" s="4">
+        <v>11</v>
+      </c>
+      <c r="K832" s="4">
+        <v>73</v>
+      </c>
+      <c r="L832" s="4">
+        <v>1</v>
+      </c>
+      <c r="M832" s="4">
+        <v>15</v>
+      </c>
+      <c r="N832" s="4">
+        <v>18</v>
+      </c>
+      <c r="O832" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q832" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="833" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>832</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C833" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D833" s="5">
+        <v>4</v>
+      </c>
+      <c r="E833" s="5">
+        <v>11</v>
+      </c>
+      <c r="F833" s="7">
+        <v>9498634</v>
+      </c>
+      <c r="G833" s="7">
+        <v>8012527</v>
+      </c>
+      <c r="H833" s="7">
+        <v>17511161</v>
+      </c>
+      <c r="J833" s="4">
+        <v>32</v>
+      </c>
+      <c r="K833" s="4">
+        <v>109</v>
+      </c>
+      <c r="L833" s="4">
+        <v>16</v>
+      </c>
+      <c r="M833" s="4">
+        <v>29</v>
+      </c>
+      <c r="N833" s="4">
+        <v>20</v>
+      </c>
+      <c r="O833" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q833" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="834" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>833</v>
+      </c>
+      <c r="B834" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C834" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D834" s="5">
+        <v>4</v>
+      </c>
+      <c r="E834" s="5">
+        <v>12</v>
+      </c>
+      <c r="F834" s="7">
+        <v>10950524</v>
+      </c>
+      <c r="G834" s="7">
+        <v>8839026</v>
+      </c>
+      <c r="H834" s="7">
+        <v>19789550</v>
+      </c>
+      <c r="J834" s="4">
+        <v>22</v>
+      </c>
+      <c r="K834" s="4">
+        <v>166</v>
+      </c>
+      <c r="L834" s="4">
+        <v>7</v>
+      </c>
+      <c r="M834" s="4">
+        <v>23</v>
+      </c>
+      <c r="N834" s="4">
+        <v>12</v>
+      </c>
+      <c r="O834" s="4">
+        <v>17</v>
+      </c>
+      <c r="Q834" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="835" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>834</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C835" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D835" s="5">
+        <v>4</v>
+      </c>
+      <c r="E835" s="5">
+        <v>13</v>
+      </c>
+      <c r="F835" s="7">
+        <v>8362154</v>
+      </c>
+      <c r="G835" s="7">
+        <v>9041473</v>
+      </c>
+      <c r="H835" s="7">
+        <v>17403627</v>
+      </c>
+      <c r="J835" s="4">
+        <v>16</v>
+      </c>
+      <c r="K835" s="4">
+        <v>103</v>
+      </c>
+      <c r="L835" s="4">
+        <v>10</v>
+      </c>
+      <c r="M835" s="4">
+        <v>21</v>
+      </c>
+      <c r="N835" s="4">
+        <v>12</v>
+      </c>
+      <c r="O835" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q835" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="836" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>835</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C836" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D836" s="5">
+        <v>4</v>
+      </c>
+      <c r="E836" s="5">
+        <v>14</v>
+      </c>
+      <c r="F836" s="7">
+        <v>5738876</v>
+      </c>
+      <c r="G836" s="7">
+        <v>5080800</v>
+      </c>
+      <c r="H836" s="7">
+        <v>10819676</v>
+      </c>
+      <c r="J836" s="4">
+        <v>10</v>
+      </c>
+      <c r="K836" s="4">
+        <v>83</v>
+      </c>
+      <c r="L836" s="4">
+        <v>1</v>
+      </c>
+      <c r="M836" s="4">
+        <v>16</v>
+      </c>
+      <c r="N836" s="4">
+        <v>10</v>
+      </c>
+      <c r="O836" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q836" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="837" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>836</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C837" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D837" s="5">
+        <v>4</v>
+      </c>
+      <c r="E837" s="5">
+        <v>15</v>
+      </c>
+      <c r="F837" s="7">
+        <v>9442856</v>
+      </c>
+      <c r="G837" s="7">
+        <v>8276416</v>
+      </c>
+      <c r="H837" s="7">
+        <v>17719272</v>
+      </c>
+      <c r="J837" s="4">
+        <v>9</v>
+      </c>
+      <c r="K837" s="4">
+        <v>15</v>
+      </c>
+      <c r="L837" s="4">
+        <v>3</v>
+      </c>
+      <c r="M837" s="4">
+        <v>6</v>
+      </c>
+      <c r="N837" s="4">
+        <v>3</v>
+      </c>
+      <c r="O837" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q837" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="838" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>837</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C838" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D838" s="5">
+        <v>4</v>
+      </c>
+      <c r="E838" s="5">
+        <v>16</v>
+      </c>
+      <c r="F838" s="7">
+        <v>9788165</v>
+      </c>
+      <c r="G838" s="7">
+        <v>7580872</v>
+      </c>
+      <c r="H838" s="7">
+        <v>17369037</v>
+      </c>
+      <c r="J838" s="4">
+        <v>24</v>
+      </c>
+      <c r="K838" s="4">
+        <v>92</v>
+      </c>
+      <c r="L838" s="4">
+        <v>10</v>
+      </c>
+      <c r="M838" s="4">
+        <v>26</v>
+      </c>
+      <c r="N838" s="4">
+        <v>24</v>
+      </c>
+      <c r="O838" s="4">
+        <v>17</v>
+      </c>
+      <c r="Q838" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="839" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>838</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C839" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D839" s="5">
+        <v>4</v>
+      </c>
+      <c r="E839" s="5">
+        <v>17</v>
+      </c>
+      <c r="F839" s="7">
+        <v>10941804</v>
+      </c>
+      <c r="G839" s="7">
+        <v>8051754</v>
+      </c>
+      <c r="H839" s="7">
+        <v>18993558</v>
+      </c>
+      <c r="J839" s="4">
+        <v>20</v>
+      </c>
+      <c r="K839" s="4">
+        <v>93</v>
+      </c>
+      <c r="L839" s="4">
+        <v>9</v>
+      </c>
+      <c r="M839" s="4">
+        <v>29</v>
+      </c>
+      <c r="N839" s="4">
+        <v>17</v>
+      </c>
+      <c r="O839" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q839" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="840" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>839</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C840" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D840" s="5">
+        <v>4</v>
+      </c>
+      <c r="E840" s="5">
+        <v>18</v>
+      </c>
+      <c r="F840" s="7">
+        <v>10173842</v>
+      </c>
+      <c r="G840" s="7">
+        <v>9107050</v>
+      </c>
+      <c r="H840" s="7">
+        <v>19280892</v>
+      </c>
+      <c r="J840" s="4">
+        <v>19</v>
+      </c>
+      <c r="K840" s="4">
+        <v>85</v>
+      </c>
+      <c r="L840" s="4">
+        <v>10</v>
+      </c>
+      <c r="M840" s="4">
+        <v>27</v>
+      </c>
+      <c r="N840" s="4">
+        <v>18</v>
+      </c>
+      <c r="O840" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q840" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="841" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>840</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C841" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D841" s="5">
+        <v>4</v>
+      </c>
+      <c r="E841" s="5">
+        <v>19</v>
+      </c>
+      <c r="F841" s="7">
+        <v>9134483</v>
+      </c>
+      <c r="G841" s="7">
+        <v>9276262</v>
+      </c>
+      <c r="H841" s="7">
+        <v>18410745</v>
+      </c>
+      <c r="J841" s="4">
+        <v>12</v>
+      </c>
+      <c r="K841" s="4">
+        <v>97</v>
+      </c>
+      <c r="L841" s="4">
+        <v>6</v>
+      </c>
+      <c r="M841" s="4">
+        <v>17</v>
+      </c>
+      <c r="N841" s="4">
+        <v>8</v>
+      </c>
+      <c r="O841" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q841" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="842" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>841</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C842" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D842" s="5">
+        <v>4</v>
+      </c>
+      <c r="E842" s="5">
+        <v>20</v>
+      </c>
+      <c r="F842" s="7">
+        <v>6773138</v>
+      </c>
+      <c r="G842" s="7">
+        <v>8454850</v>
+      </c>
+      <c r="H842" s="7">
+        <v>15227988</v>
+      </c>
+      <c r="J842" s="4">
+        <v>4</v>
+      </c>
+      <c r="K842" s="4">
+        <v>9</v>
+      </c>
+      <c r="L842" s="4">
+        <v>2</v>
+      </c>
+      <c r="M842" s="4">
+        <v>7</v>
+      </c>
+      <c r="N842" s="4">
+        <v>4</v>
+      </c>
+      <c r="O842" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q842" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="843" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>842</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C843" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D843" s="5">
+        <v>4</v>
+      </c>
+      <c r="E843" s="5">
+        <v>21</v>
+      </c>
+      <c r="F843" s="7">
+        <v>6832166</v>
+      </c>
+      <c r="G843" s="7">
+        <v>4563729</v>
+      </c>
+      <c r="H843" s="7">
+        <v>11395895</v>
+      </c>
+      <c r="J843" s="4">
+        <v>21</v>
+      </c>
+      <c r="K843" s="4">
+        <v>113</v>
+      </c>
+      <c r="L843" s="4">
+        <v>1</v>
+      </c>
+      <c r="M843" s="4">
+        <v>23</v>
+      </c>
+      <c r="N843" s="4">
+        <v>16</v>
+      </c>
+      <c r="O843" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q843" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="844" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>843</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C844" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D844" s="5">
+        <v>4</v>
+      </c>
+      <c r="E844" s="5">
+        <v>22</v>
+      </c>
+      <c r="F844" s="7">
+        <v>9730722</v>
+      </c>
+      <c r="G844" s="7">
+        <v>8397240</v>
+      </c>
+      <c r="H844" s="7">
+        <v>18127962</v>
+      </c>
+      <c r="J844" s="4">
+        <v>15</v>
+      </c>
+      <c r="K844" s="4">
+        <v>95</v>
+      </c>
+      <c r="L844" s="4">
+        <v>12</v>
+      </c>
+      <c r="M844" s="4">
+        <v>20</v>
+      </c>
+      <c r="N844" s="4">
+        <v>13</v>
+      </c>
+      <c r="O844" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q844" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="845" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>844</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C845" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D845" s="5">
+        <v>4</v>
+      </c>
+      <c r="E845" s="5">
+        <v>23</v>
+      </c>
+      <c r="F845" s="7">
+        <v>8393942</v>
+      </c>
+      <c r="G845" s="7">
+        <v>8154931</v>
+      </c>
+      <c r="H845" s="7">
+        <v>16548873</v>
+      </c>
+      <c r="J845" s="4">
+        <v>10</v>
+      </c>
+      <c r="K845" s="4">
+        <v>39</v>
+      </c>
+      <c r="L845" s="4">
+        <v>8</v>
+      </c>
+      <c r="M845" s="4">
+        <v>10</v>
+      </c>
+      <c r="N845" s="4">
+        <v>2</v>
+      </c>
+      <c r="O845" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q845" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="846" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>845</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C846" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D846" s="5">
+        <v>4</v>
+      </c>
+      <c r="E846" s="5">
+        <v>24</v>
+      </c>
+      <c r="F846" s="7">
+        <v>9635286</v>
+      </c>
+      <c r="G846" s="7">
+        <v>9024760</v>
+      </c>
+      <c r="H846" s="7">
+        <v>18660046</v>
+      </c>
+      <c r="J846" s="4">
+        <v>15</v>
+      </c>
+      <c r="K846" s="4">
+        <v>72</v>
+      </c>
+      <c r="L846" s="4">
+        <v>10</v>
+      </c>
+      <c r="M846" s="4">
+        <v>29</v>
+      </c>
+      <c r="N846" s="4">
+        <v>17</v>
+      </c>
+      <c r="O846" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q846" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="847" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>846</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C847" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D847" s="5">
+        <v>4</v>
+      </c>
+      <c r="E847" s="5">
+        <v>25</v>
+      </c>
+      <c r="F847" s="7">
+        <v>8607093</v>
+      </c>
+      <c r="G847" s="7">
+        <v>8487146</v>
+      </c>
+      <c r="H847" s="7">
+        <v>17094239</v>
+      </c>
+      <c r="J847" s="4">
+        <v>19</v>
+      </c>
+      <c r="K847" s="4">
+        <v>87</v>
+      </c>
+      <c r="L847" s="4">
+        <v>8</v>
+      </c>
+      <c r="M847" s="4">
+        <v>27</v>
+      </c>
+      <c r="N847" s="4">
+        <v>10</v>
+      </c>
+      <c r="O847" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q847" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="848" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>847</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C848" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D848" s="5">
+        <v>4</v>
+      </c>
+      <c r="E848" s="5">
+        <v>26</v>
+      </c>
+      <c r="F848" s="7">
+        <v>9480162</v>
+      </c>
+      <c r="G848" s="7">
+        <v>9374560</v>
+      </c>
+      <c r="H848" s="7">
+        <v>18854722</v>
+      </c>
+      <c r="J848" s="4">
+        <v>12</v>
+      </c>
+      <c r="K848" s="4">
+        <v>97</v>
+      </c>
+      <c r="L848" s="4">
+        <v>10</v>
+      </c>
+      <c r="M848" s="4">
+        <v>24</v>
+      </c>
+      <c r="N848" s="4">
+        <v>16</v>
+      </c>
+      <c r="O848" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q848" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="849" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>848</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C849" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D849" s="5">
+        <v>4</v>
+      </c>
+      <c r="E849" s="5">
+        <v>27</v>
+      </c>
+      <c r="F849" s="7">
+        <v>8415550</v>
+      </c>
+      <c r="G849" s="7">
+        <v>8919780</v>
+      </c>
+      <c r="H849" s="7">
+        <v>17335330</v>
+      </c>
+      <c r="J849" s="4">
+        <v>25</v>
+      </c>
+      <c r="K849" s="4">
+        <v>114</v>
+      </c>
+      <c r="L849" s="4">
+        <v>7</v>
+      </c>
+      <c r="M849" s="4">
+        <v>21</v>
+      </c>
+      <c r="N849" s="4">
+        <v>19</v>
+      </c>
+      <c r="O849" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q849" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="850" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>849</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C850" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D850" s="5">
+        <v>4</v>
+      </c>
+      <c r="E850" s="5">
+        <v>28</v>
+      </c>
+      <c r="F850" s="7">
+        <v>6034732</v>
+      </c>
+      <c r="G850" s="7">
+        <v>4604391</v>
+      </c>
+      <c r="H850" s="7">
+        <v>10639123</v>
+      </c>
+      <c r="J850" s="4">
+        <v>4</v>
+      </c>
+      <c r="K850" s="4">
+        <v>102</v>
+      </c>
+      <c r="L850" s="4">
+        <v>2</v>
+      </c>
+      <c r="M850" s="4">
+        <v>22</v>
+      </c>
+      <c r="N850" s="4">
+        <v>12</v>
+      </c>
+      <c r="O850" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q850" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="851" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>850</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C851" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D851" s="5">
+        <v>4</v>
+      </c>
+      <c r="E851" s="5">
+        <v>29</v>
+      </c>
+      <c r="F851" s="7">
+        <v>9271806</v>
+      </c>
+      <c r="G851" s="7">
+        <v>9019919</v>
+      </c>
+      <c r="H851" s="7">
+        <v>18291725</v>
+      </c>
+      <c r="J851" s="4">
+        <v>26</v>
+      </c>
+      <c r="K851" s="4">
+        <v>105</v>
+      </c>
+      <c r="L851" s="4">
+        <v>12</v>
+      </c>
+      <c r="M851" s="4">
+        <v>25</v>
+      </c>
+      <c r="N851" s="4">
+        <v>16</v>
+      </c>
+      <c r="O851" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q851" s="5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="852" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>851</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C852" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D852" s="5">
+        <v>4</v>
+      </c>
+      <c r="E852" s="5">
+        <v>30</v>
+      </c>
+      <c r="F852" s="7">
+        <v>10304201</v>
+      </c>
+      <c r="G852" s="7">
+        <v>1121582</v>
+      </c>
+      <c r="H852" s="7">
+        <v>11425783</v>
+      </c>
+      <c r="J852" s="4">
+        <v>18</v>
+      </c>
+      <c r="K852" s="4">
+        <v>130</v>
+      </c>
+      <c r="L852" s="4">
+        <v>8</v>
+      </c>
+      <c r="M852" s="4">
+        <v>31</v>
+      </c>
+      <c r="N852" s="4">
+        <v>21</v>
+      </c>
+      <c r="O852" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q852" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="853" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A853" s="1"/>
+      <c r="B853" s="6"/>
+    </row>
+    <row r="854" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A854" s="1"/>
+      <c r="B854" s="6"/>
+    </row>
+    <row r="855" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A855" s="1"/>
+      <c r="B855" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R822" xr:uid="{E0ADB872-089C-4116-92F7-D7DE0090DDD6}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R822">
